--- a/Planificacion_S9_2025.xlsx
+++ b/Planificacion_S9_2025.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,26 +25,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00003366"/>
-        <bgColor rgb="00003366"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -52,21 +42,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -143,6 +125,23 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaActividades" displayName="TablaActividades" ref="A1:H6" headerRowCount="1">
+  <autoFilter ref="A1:H6"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Semana"/>
+    <tableColumn id="2" name="Año"/>
+    <tableColumn id="3" name="Fecha"/>
+    <tableColumn id="4" name="Escuelas"/>
+    <tableColumn id="5" name="Grupos"/>
+    <tableColumn id="6" name="Tema"/>
+    <tableColumn id="7" name="Participantes"/>
+    <tableColumn id="8" name="Notas"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,38 +441,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.6" customWidth="1" min="1" max="1"/>
-    <col width="7.199999999999999" customWidth="1" min="2" max="2"/>
-    <col width="8.4" customWidth="1" min="3" max="3"/>
-    <col width="13.2" customWidth="1" min="4" max="4"/>
-    <col width="38.4" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="21.6" customWidth="1" min="7" max="7"/>
-    <col width="62.4" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="52" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Semana</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Año</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Escuelas</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Grupos</t>
         </is>
@@ -483,202 +482,202 @@
           <t>Tema</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Participantes</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Notas</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>2025</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>24/02</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>AEC</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Salud mental</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" t="n">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="n">
         <v>2025</v>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>24/02</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>INBLOQUET</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Remy, Dario, Emy</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" t="n">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" t="n">
         <v>2025</v>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>25/02</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>PB</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Oruga</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Se necesita una estrategia de actividad con Max...</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" t="n">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" t="n">
         <v>2025</v>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>25/02</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>INBLOQUET</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>RINOS</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>Secuencia de pasos</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" t="n">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" t="n">
         <v>2025</v>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>26/02</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>PANDAS/BUFALOS, PUMAS/DELFINES</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>Secuencia de pasos</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -686,5 +685,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Planificacion_S9_2025.xlsx
+++ b/Planificacion_S9_2025.xlsx
@@ -128,17 +128,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaActividades" displayName="TablaActividades" ref="A1:H6" headerRowCount="1">
-  <autoFilter ref="A1:H6"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaActividades" displayName="TablaActividades" ref="A1:I6" headerRowCount="1">
+  <autoFilter ref="A1:I6"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Semana"/>
     <tableColumn id="2" name="Año"/>
     <tableColumn id="3" name="Fecha"/>
     <tableColumn id="4" name="Escuelas"/>
     <tableColumn id="5" name="Grupos"/>
-    <tableColumn id="6" name="Tema"/>
-    <tableColumn id="7" name="Participantes"/>
-    <tableColumn id="8" name="Notas"/>
+    <tableColumn id="6" name="Horario"/>
+    <tableColumn id="7" name="Tema"/>
+    <tableColumn id="8" name="Participantes"/>
+    <tableColumn id="9" name="Notas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +446,11 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="32" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="52" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="32" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="52" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,15 +481,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Horario</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Tema</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Participantes</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Notas</t>
         </is>
@@ -517,15 +524,20 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Salud mental</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -560,10 +572,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Remy, Dario, Emy</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -588,20 +605,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
           <t>PB</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Oruga</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Se necesita una estrategia de actividad con Max...</t>
         </is>
@@ -626,20 +648,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
           <t>RINOS</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Secuencia de pasos</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -664,20 +691,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
           <t>PANDAS/BUFALOS, PUMAS/DELFINES</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Secuencia de pasos</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/Planificacion_S9_2025.xlsx
+++ b/Planificacion_S9_2025.xlsx
@@ -17,13 +17,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +58,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -127,19 +148,75 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1428750" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4171950" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaActividades" displayName="TablaActividades" ref="A1:I6" headerRowCount="1">
-  <autoFilter ref="A1:I6"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaActividades" displayName="TablaActividades" ref="A5:J10" headerRowCount="1">
+  <autoFilter ref="A5:J10"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Semana"/>
     <tableColumn id="2" name="Año"/>
     <tableColumn id="3" name="Fecha"/>
-    <tableColumn id="4" name="Escuelas"/>
-    <tableColumn id="5" name="Grupos"/>
+    <tableColumn id="4" name="Día"/>
+    <tableColumn id="5" name="Escuelas"/>
     <tableColumn id="6" name="Horario"/>
-    <tableColumn id="7" name="Tema"/>
-    <tableColumn id="8" name="Participantes"/>
-    <tableColumn id="9" name="Notas"/>
+    <tableColumn id="7" name="Grupos"/>
+    <tableColumn id="8" name="Tema"/>
+    <tableColumn id="9" name="Alumnos"/>
+    <tableColumn id="10" name="Notas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -434,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,229 +523,90 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="32" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="52" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="52" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="50" customHeight="1">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Programación de Actividades Semanal</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="50" customHeight="1">
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>SEMANA 9 - AÑO 2025</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>¡Intenta, Explora y Conquista!</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Semana</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Año</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Escuelas</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Horario</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Grupos</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Horario</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>Tema</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Participantes</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Alumnos</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>Notas</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>24/02</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AEC</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Salud mental</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>24/02</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>INBLOQUET</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Remy, Dario, Emy</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>25/02</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>PB</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Oruga</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Se necesita una estrategia de actividad con Max...</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>25/02</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>INBLOQUET</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>RINOS</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Secuencia de pasos</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -681,44 +619,251 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>24/02</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AEC</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Salud mental</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>24/02</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>INBLOQUET</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Remy, Dario, Emy</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>25/02</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Oruga</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Se necesita una estrategia de actividad con Max...</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>25/02</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>INBLOQUET</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>RINOS</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Secuencia de pasos</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>26/02</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>PANDAS/BUFALOS, PUMAS/DELFINES</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>Secuencia de pasos</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>